--- a/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
+++ b/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/R2R/DSMhabitat/data-raw/R2R_TMH_habitat_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E317B8-1546-7A43-AB60-D43FCA89B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C7B9D-1D96-3F48-89DA-1FACFCC3E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32960" yWindow="2080" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
   <dimension ref="A1:AA1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4032,7 +4032,9 @@
       <c r="F71" s="1">
         <v>122.45</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="16">
+        <v>0</v>
+      </c>
       <c r="J71" s="1" t="s">
         <v>36</v>
       </c>

--- a/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
+++ b/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/R2R/DSMhabitat/data-raw/R2R_TMH_habitat_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C7B9D-1D96-3F48-89DA-1FACFCC3E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849465C3-A96C-C347-A3E7-12F08E8F0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32960" yWindow="2080" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@aidankelleher98@gmail.com what are the units here?
@@ -66,6 +67,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@aidankelleher98@gmail.com need these values
@@ -91,6 +93,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Table 2 of Yoshiyama; column 3
@@ -115,6 +118,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>not including Fall River, a tributary, which has an additional 24.3 mi</t>
@@ -128,6 +132,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>summing all subreach lengths</t>
@@ -141,6 +146,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>includes length of both reservoirs</t>
@@ -154,6 +160,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>including reach slightly downstream that is beyond the extent of the current habitat shapefile</t>
@@ -167,6 +174,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>including reach slightly downstream that is beyond the extent of the current habitat shapefile</t>
@@ -1002,6 +1010,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,12 +1018,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,11 +1033,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1037,12 +1050,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1054,12 +1069,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1067,6 +1084,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,6 +1092,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1457,8 +1476,8 @@
   <dimension ref="A1:AA1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9845,7 +9864,7 @@
   <customSheetViews>
     <customSheetView guid="{82525D4F-3E41-4EA6-A509-DA05F63782D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA1061" xr:uid="{872D6F7C-064F-7E4B-9FF5-C230378D613F}">
+      <autoFilter ref="A1:AA1061" xr:uid="{07782A27-DAE3-8044-AE53-C91EAEE71ED8}">
         <filterColumn colId="11">
           <filters>
             <filter val="USC"/>

--- a/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
+++ b/data-raw/R2R_TMH_habitat_inputs/River Length Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/R2R/DSMhabitat/data-raw/R2R_TMH_habitat_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849465C3-A96C-C347-A3E7-12F08E8F0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C7B9D-1D96-3F48-89DA-1FACFCC3E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32960" yWindow="2080" windowWidth="28800" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@aidankelleher98@gmail.com what are the units here?
@@ -67,7 +66,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@aidankelleher98@gmail.com need these values
@@ -93,7 +91,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Table 2 of Yoshiyama; column 3
@@ -118,7 +115,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>not including Fall River, a tributary, which has an additional 24.3 mi</t>
@@ -132,7 +128,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>summing all subreach lengths</t>
@@ -146,7 +141,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>includes length of both reservoirs</t>
@@ -160,7 +154,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>including reach slightly downstream that is beyond the extent of the current habitat shapefile</t>
@@ -174,7 +167,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>including reach slightly downstream that is beyond the extent of the current habitat shapefile</t>
@@ -1010,7 +1002,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1018,14 +1009,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,13 +1022,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1050,14 +1037,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1069,14 +1054,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1084,7 +1067,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1092,7 +1074,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1476,8 +1457,8 @@
   <dimension ref="A1:AA1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9864,7 +9845,7 @@
   <customSheetViews>
     <customSheetView guid="{82525D4F-3E41-4EA6-A509-DA05F63782D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA1061" xr:uid="{07782A27-DAE3-8044-AE53-C91EAEE71ED8}">
+      <autoFilter ref="A1:AA1061" xr:uid="{872D6F7C-064F-7E4B-9FF5-C230378D613F}">
         <filterColumn colId="11">
           <filters>
             <filter val="USC"/>
